--- a/biology/Histoire de la zoologie et de la botanique/Amos_Binney/Amos_Binney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amos_Binney/Amos_Binney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amos Binney est un médecin et un conchyliologiste américain, né le 18 octobre 1803 à Boston et mort le 18 février 1847 à Rome (Italie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences à l’université Brown (1821) et son Medical Doctorat (1826) à Harvard. Il est cofondateur de la Boston Society of Natural Sciences et y assurera les fonctions de conservateur (1830-1832) et de président (1843-1847). Il est notamment l’auteur de Terrestrial Air-Breathing Mollusks of the United States.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)</t>
         </is>
